--- a/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/BulletInfo.xlsx
+++ b/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/BulletInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\000-Study\800-GitKraken\DanmukuGame_Resetv1.0\DanmukuGame_Resetv1.0\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D14ED9-2452-412B-AF3D-F8D35004A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9578417-EEC4-4C2F-8DB6-E5A1908096D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3570" windowWidth="17670" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="1320" windowWidth="17676" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletInfo" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,7 @@
   </si>
   <si>
     <t>0:直线
-1:曲线
-2:追踪</t>
+1:曲线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -401,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -411,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,15 +418,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
